--- a/screen.xlsx
+++ b/screen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\24-1\종설\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3BB01B-C035-4B31-AA5D-2EE7EB327FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2804197-A6F4-43A9-807B-EFE1BEFA579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
+    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="screen" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>경찰서 위에 설치, 4면에서 볼수있게 4개의 화면으로 이루어진 육면체 형태의 스크린 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,9 +291,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -628,7 +633,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,7 +675,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -692,7 +699,9 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -745,10 +754,10 @@
       <c r="G4" s="2">
         <v>53</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/screen.xlsx
+++ b/screen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2804197-A6F4-43A9-807B-EFE1BEFA579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330DB05-6F12-4E98-97EB-5E4653E723BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
+    <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="screen" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,18 +174,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모션 교체 주기 (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>screenMotionCycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +191,26 @@
   </si>
   <si>
     <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenMotionCycleMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenMotionCycleMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 교체 주기 min (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 교체 주기 max (s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9A0E84-0BAD-459B-98EE-CE21F7A1FFD4}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,11 +653,12 @@
     <col min="1" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="7" width="13.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
-    <col min="9" max="9" width="50.75" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -668,15 +681,18 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -697,13 +713,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -726,13 +745,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -755,10 +777,13 @@
         <v>53</v>
       </c>
       <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/screen.xlsx
+++ b/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330DB05-6F12-4E98-97EB-5E4653E723BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D3272-9179-4CF7-B3EA-729A9C53B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,18 +182,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경찰서 위에 설치, 4면에서 볼수있게 4개의 화면으로 이루어진 육면체 형태의 스크린 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screenMotionCycleMin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,11 +198,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모션 교체 주기 min (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션 교체 주기 max (s)</t>
+    <t>over the police station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion changing cycle max (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion changing cycle min (s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +641,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,8 +649,8 @@
     <col min="1" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="7" width="13.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -681,10 +677,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>12</v>
@@ -692,7 +688,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -716,11 +712,9 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -745,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -762,7 +756,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>47</v>
@@ -771,19 +765,19 @@
         <v>53</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>53</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
